--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GBMLVFILFS05N02\home0$\NirmJ\Profile\Desktop\Talent Academy\Course Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F5C5DC-8319-4243-9E38-FFF0E7032415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E858B4-AB86-4605-BA18-A21DBBAD543E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{3EBB3163-CAD7-43BD-8DA8-363AF09343BB}"/>
+    <workbookView xWindow="2175" yWindow="2550" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="3" xr2:uid="{3EBB3163-CAD7-43BD-8DA8-363AF09343BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="168">
   <si>
     <t>Name</t>
   </si>
@@ -562,6 +562,18 @@
   </si>
   <si>
     <t>Bullet Chart</t>
+  </si>
+  <si>
+    <t>Reduce gap width</t>
+  </si>
+  <si>
+    <t>CTRL + Y to copy formatting</t>
+  </si>
+  <si>
+    <t>Waterfall Chart</t>
+  </si>
+  <si>
+    <t>Sety Anchoring Points as Total</t>
   </si>
 </sst>
 </file>
@@ -6148,16 +6160,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15149C6-D51A-4779-B048-A43FC8FFF2F3}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6211,6 +6223,24 @@
         <v>163</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -8,26 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GBMLVFILFS05N02\home0$\NirmJ\Profile\Desktop\Talent Academy\Course Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E858B4-AB86-4605-BA18-A21DBBAD543E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5706F0-2517-4B56-A0A9-9C2008D37F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="2550" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="3" xr2:uid="{3EBB3163-CAD7-43BD-8DA8-363AF09343BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3EBB3163-CAD7-43BD-8DA8-363AF09343BB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TablesRanges" sheetId="1" r:id="rId1"/>
     <sheet name="Test Ex" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="Charts" sheetId="5" r:id="rId3"/>
+    <sheet name="DVPractices" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$D$1</definedName>
     <definedName name="t1diff">Table1[Diff T1 Only]</definedName>
     <definedName name="t2commission">Table2[% Commission]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="177">
   <si>
     <t>Name</t>
   </si>
@@ -441,9 +437,6 @@
     <t>PIVOT TABLE</t>
   </si>
   <si>
-    <t>Car ID</t>
-  </si>
-  <si>
     <t>Car</t>
   </si>
   <si>
@@ -492,15 +485,6 @@
     <t>(lookup_value, table_array, row_index_num, [range_lookup])</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average of Price </t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -574,6 +558,45 @@
   </si>
   <si>
     <t>Sety Anchoring Points as Total</t>
+  </si>
+  <si>
+    <t>Scatterplot</t>
+  </si>
+  <si>
+    <t>Automatic</t>
+  </si>
+  <si>
+    <t>Vary colous by data Point</t>
+  </si>
+  <si>
+    <t>Chart Title - Dynamic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axis Labels  </t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Display Units</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>F|ormat Data Series</t>
+  </si>
+  <si>
+    <t>Smooth Line</t>
+  </si>
+  <si>
+    <t>Remove Transparency</t>
+  </si>
+  <si>
+    <t>Reconfirm Colour</t>
+  </si>
+  <si>
+    <t>Axis Bounds</t>
   </si>
 </sst>
 </file>
@@ -648,25 +671,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -694,17 +704,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -724,68 +723,33 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -4144,198 +4108,273 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="nirmj" refreshedDate="45573.707898379631" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{12F09061-C527-4454-AF2A-E5B0C1AA540A}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D13" sheet="Sheet3"/>
-  </cacheSource>
-  <cacheFields count="4">
-    <cacheField name="Car ID" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12"/>
-    </cacheField>
-    <cacheField name="Car" numFmtId="0">
-      <sharedItems count="10">
-        <s v="Hyundai"/>
-        <s v="Honda"/>
-        <s v="Toyota"/>
-        <s v="Nissan"/>
-        <s v="Suzuki"/>
-        <s v="Mercedes"/>
-        <s v="BMW"/>
-        <s v="Range Rover"/>
-        <s v="Kia"/>
-        <s v="Ford"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Price " numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1000" maxValue="6000"/>
-    </cacheField>
-    <cacheField name="Year" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1995" maxValue="2005"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="12">
-  <r>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="1000"/>
-    <n v="2001"/>
-  </r>
-  <r>
-    <n v="2"/>
-    <x v="1"/>
-    <n v="2000"/>
-    <n v="2001"/>
-  </r>
-  <r>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="1500"/>
-    <n v="2000"/>
-  </r>
-  <r>
-    <n v="4"/>
-    <x v="3"/>
-    <n v="3000"/>
-    <n v="1999"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <x v="4"/>
-    <n v="4000"/>
-    <n v="2004"/>
-  </r>
-  <r>
-    <n v="6"/>
-    <x v="5"/>
-    <n v="2500"/>
-    <n v="2005"/>
-  </r>
-  <r>
-    <n v="7"/>
-    <x v="6"/>
-    <n v="4500"/>
-    <n v="1998"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <x v="7"/>
-    <n v="5000"/>
-    <n v="2003"/>
-  </r>
-  <r>
-    <n v="9"/>
-    <x v="8"/>
-    <n v="1250"/>
-    <n v="1995"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <x v="9"/>
-    <n v="3500"/>
-    <n v="2000"/>
-  </r>
-  <r>
-    <n v="11"/>
-    <x v="0"/>
-    <n v="5500"/>
-    <n v="2001"/>
-  </r>
-  <r>
-    <n v="12"/>
-    <x v="8"/>
-    <n v="6000"/>
-    <n v="1998"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F6AB5659-F5AF-40BD-BD00-99944C12A4DF}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F2:G13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item x="6"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Price " fld="2" subtotal="average" baseField="1" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>248961</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>29004</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C46BD4F-82B5-6DAB-6DD2-F4FCA3D766DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9392961" cy="3077004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>58264</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152873</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE4B745E-4CE0-F208-B598-C612C922BEB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3238500"/>
+          <a:ext cx="7983064" cy="3391373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>10086</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>143368</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A9DDF8-980E-3AE6-55AE-0575F2836285}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9401175" y="38100"/>
+          <a:ext cx="4020111" cy="3534268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>515094</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC8FC240-C6A3-73DC-15E3-ADCA83678579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7981950" y="3248025"/>
+          <a:ext cx="5334744" cy="3419952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>572771</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>10032</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{289349CD-4F59-1837-CE88-C5A3A3903A27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6667500"/>
+          <a:ext cx="9107171" cy="3629532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>429280</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>29191</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B8BC1E9-0702-9BD3-73D8-F68DB290C5A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="6667500"/>
+          <a:ext cx="4696480" cy="4410691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4715,7 +4754,7 @@
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4879,7 +4918,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="8" t="s">
         <v>93</v>
       </c>
       <c r="P6" t="s">
@@ -4912,7 +4951,7 @@
       <c r="K7" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="8" t="s">
         <v>112</v>
       </c>
       <c r="P7" t="s">
@@ -5405,7 +5444,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B36" t="s">
         <v>109</v>
@@ -5432,36 +5471,36 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="13" t="s">
+      <c r="A39" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E39" s="36" t="s">
-        <v>145</v>
+      <c r="E39" s="21" t="s">
+        <v>141</v>
       </c>
       <c r="I39" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="18">
+      <c r="B40" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="14">
         <v>1000</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="15">
         <v>2001</v>
       </c>
       <c r="E40">
@@ -5473,16 +5512,16 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="22">
+      <c r="B41" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="17">
         <v>1250</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="18">
         <v>1995</v>
       </c>
       <c r="E41">
@@ -5491,16 +5530,16 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="18">
+      <c r="B42" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="14">
         <v>1500</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="15">
         <v>2000</v>
       </c>
       <c r="E42">
@@ -5515,16 +5554,16 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" s="22">
+      <c r="B43" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="17">
         <v>2000</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="18">
         <v>2001</v>
       </c>
       <c r="E43">
@@ -5536,16 +5575,16 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="18">
+      <c r="B44" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="14">
         <v>2500</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="15">
         <v>2005</v>
       </c>
       <c r="E44">
@@ -5554,16 +5593,16 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" s="22">
+      <c r="B45" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="17">
         <v>3000</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="18">
         <v>1999</v>
       </c>
       <c r="E45">
@@ -5575,16 +5614,16 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" s="18">
+      <c r="B46" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="14">
         <v>3500</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="15">
         <v>2000</v>
       </c>
       <c r="E46">
@@ -5596,16 +5635,16 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B47" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="22">
+      <c r="B47" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="17">
         <v>4000</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="18">
         <v>2004</v>
       </c>
       <c r="E47">
@@ -5617,16 +5656,16 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" s="18">
+      <c r="B48" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="14">
         <v>4500</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="15">
         <v>1998</v>
       </c>
       <c r="E48">
@@ -5638,16 +5677,16 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" s="24">
+      <c r="A49" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="19">
         <v>5000</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="7">
         <v>2003</v>
       </c>
       <c r="E49">
@@ -5659,14 +5698,14 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B51" s="25" t="s">
+      <c r="A51" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="20" t="s">
         <v>136</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>137</v>
       </c>
       <c r="I51" t="s">
         <v>115</v>
@@ -5683,7 +5722,7 @@
         <f>HLOOKUP(B39, B39:D49, $A$52, FALSE)</f>
         <v>Toyota</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="9">
         <f>HLOOKUP(C39, C39:D49, $A$52, FALSE)</f>
         <v>1500</v>
       </c>
@@ -5691,7 +5730,7 @@
         <v>116</v>
       </c>
       <c r="J52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -5715,33 +5754,33 @@
         <v>122</v>
       </c>
       <c r="J56" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I57" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I58" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I59" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J59" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I60" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J60" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5868,381 +5907,163 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6402C104-3DCC-4AFC-93F9-AC4C8B054A36}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="18">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="19">
-        <v>2001</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="22">
-        <v>2000</v>
-      </c>
-      <c r="D3" s="23">
-        <v>2001</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" s="2">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="18">
-        <v>1500</v>
-      </c>
-      <c r="D4" s="19">
-        <v>2000</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="22">
-        <v>3000</v>
-      </c>
-      <c r="D5" s="23">
-        <v>1999</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="22">
-        <v>4000</v>
-      </c>
-      <c r="D6" s="23">
-        <v>2004</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="18">
-        <v>2500</v>
-      </c>
-      <c r="D7" s="19">
-        <v>2005</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>7</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="18">
-        <v>4500</v>
-      </c>
-      <c r="D8" s="19">
-        <v>1998</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="22">
-        <v>5000</v>
-      </c>
-      <c r="D9" s="23">
-        <v>2003</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="22">
-        <v>1250</v>
-      </c>
-      <c r="D10" s="23">
-        <v>1995</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="G10" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="34">
-        <v>3500</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2000</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="2">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
-        <v>11</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="29">
-        <v>5500</v>
-      </c>
-      <c r="D12" s="30">
-        <v>2001</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
-        <v>12</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="32">
-        <v>6000</v>
-      </c>
-      <c r="D13" s="33">
-        <v>1998</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="2">
-        <v>3312.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{6402C104-3DCC-4AFC-93F9-AC4C8B054A36}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15149C6-D51A-4779-B048-A43FC8FFF2F3}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" t="s">
         <v>166</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8685364C-288F-4584-8C8B-5A73F6F9F6DA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y40" sqref="Y40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GBMLVFILFS05N02\home0$\NirmJ\Profile\Desktop\Talent Academy\Course Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5706F0-2517-4B56-A0A9-9C2008D37F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80D2EFC-8CA3-4993-9DF8-F8A38DC9348E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3EBB3163-CAD7-43BD-8DA8-363AF09343BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{3EBB3163-CAD7-43BD-8DA8-363AF09343BB}"/>
   </bookViews>
   <sheets>
     <sheet name="TablesRanges" sheetId="1" r:id="rId1"/>
     <sheet name="Test Ex" sheetId="2" r:id="rId2"/>
     <sheet name="Charts" sheetId="5" r:id="rId3"/>
     <sheet name="DVPractices" sheetId="6" r:id="rId4"/>
+    <sheet name="PivotCharts" sheetId="7" r:id="rId5"/>
+    <sheet name="CaseStudy" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">#REF!</definedName>
@@ -66,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="220">
   <si>
     <t>Name</t>
   </si>
@@ -584,9 +586,6 @@
     <t>Legend</t>
   </si>
   <si>
-    <t>F|ormat Data Series</t>
-  </si>
-  <si>
     <t>Smooth Line</t>
   </si>
   <si>
@@ -597,6 +596,138 @@
   </si>
   <si>
     <t>Axis Bounds</t>
+  </si>
+  <si>
+    <t>Format Data Series</t>
+  </si>
+  <si>
+    <t>Seasonality: a situation in time-series analysis in which the data has clear regular, and predictable changes that recur every calendar year/month/week.</t>
+  </si>
+  <si>
+    <t>Format Legend Colour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formats Clusterted Chart </t>
+  </si>
+  <si>
+    <t>Axis Units</t>
+  </si>
+  <si>
+    <t>Thousands</t>
+  </si>
+  <si>
+    <t>Data Labels</t>
+  </si>
+  <si>
+    <t>Custom Category Number $0 "K"</t>
+  </si>
+  <si>
+    <t>Remove Axis</t>
+  </si>
+  <si>
+    <t>Large datasets</t>
+  </si>
+  <si>
+    <t>Diaggregated data</t>
+  </si>
+  <si>
+    <t>Insert PivotChart</t>
+  </si>
+  <si>
+    <t>PivotChart</t>
+  </si>
+  <si>
+    <t>Pivottable</t>
+  </si>
+  <si>
+    <t>Summarize Values by</t>
+  </si>
+  <si>
+    <t>Hide all Field Buttons</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Remove Headings &amp; gridlines</t>
+  </si>
+  <si>
+    <t>No outlines</t>
+  </si>
+  <si>
+    <t>Change denomination</t>
+  </si>
+  <si>
+    <t>Slicer</t>
+  </si>
+  <si>
+    <t>Report Connections</t>
+  </si>
+  <si>
+    <t>Page Layout</t>
+  </si>
+  <si>
+    <t>Set print area</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Change Chart Type</t>
+  </si>
+  <si>
+    <t>Create 2nd Pivot Table</t>
+  </si>
+  <si>
+    <t>PivotChart Analyze</t>
+  </si>
+  <si>
+    <t>Insert Timeline</t>
+  </si>
+  <si>
+    <t>Insert Slicer</t>
+  </si>
+  <si>
+    <t>Shape Styles</t>
+  </si>
+  <si>
+    <t>Shape Outline</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Orientation</t>
+  </si>
+  <si>
+    <t>Scaling</t>
+  </si>
+  <si>
+    <t>Active Sheets</t>
+  </si>
+  <si>
+    <t>Data Tools</t>
+  </si>
+  <si>
+    <t>[@Pricing]</t>
+  </si>
+  <si>
+    <t>Existing Worksheet</t>
+  </si>
+  <si>
+    <t>Select Cell</t>
+  </si>
+  <si>
+    <t>Sort PivotTable</t>
+  </si>
+  <si>
+    <t>R/C Value - Sort - More Sort Options</t>
+  </si>
+  <si>
+    <t>Convert Values</t>
+  </si>
+  <si>
+    <t>R/C Value - Show Value as</t>
   </si>
 </sst>
 </file>
@@ -607,7 +738,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,8 +775,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,6 +806,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,7 +873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -752,6 +897,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4377,6 +4524,187 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>83438</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4182E381-04D0-77BF-AA75-D119E52E1188}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="4914900" cy="1988438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>187508</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C108314-8789-E5B4-E751-A4CAB86F629C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2085975"/>
+          <a:ext cx="2762250" cy="2483033"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>125001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F9756C0-91DE-6306-C918-4A06E848D942}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="2286001"/>
+          <a:ext cx="4933950" cy="2220500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60B3E145-A02E-ED6D-8365-88A5E77C0AA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="0"/>
+          <a:ext cx="4010025" cy="2098761"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDA22DF9-5437-435B-8DEF-61583903D899}" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0">
   <autoFilter ref="A1:E7" xr:uid="{EDA22DF9-5437-435B-8DEF-61583903D899}"/>
@@ -4753,8 +5081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99222097-D0F9-4358-B1A9-229DFD71A79A}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4951,6 +5279,9 @@
       <c r="K7" t="s">
         <v>45</v>
       </c>
+      <c r="L7" t="s">
+        <v>213</v>
+      </c>
       <c r="O7" s="8" t="s">
         <v>112</v>
       </c>
@@ -5241,11 +5572,14 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I25" t="s">
+      <c r="I25" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="24" t="s">
         <v>15</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -5800,7 +6134,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5908,16 +6242,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15149C6-D51A-4779-B048-A43FC8FFF2F3}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6028,23 +6362,62 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" t="s">
         <v>172</v>
-      </c>
-      <c r="B16" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" t="s">
         <v>174</v>
-      </c>
-      <c r="B17" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -6066,4 +6439,207 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE438B38-5C3D-4D63-B441-5450E1BE7213}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367831D4-A830-41E1-A932-F6BCCC119581}">
+  <dimension ref="K1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="13" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1">
+        <v>398.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GBMLVFILFS05N02\home0$\NirmJ\Profile\Desktop\Talent Academy\Course Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80D2EFC-8CA3-4993-9DF8-F8A38DC9348E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A46864-86EA-4EE2-B265-4D31D4D388F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{3EBB3163-CAD7-43BD-8DA8-363AF09343BB}"/>
+    <workbookView xWindow="33960" yWindow="4575" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{3EBB3163-CAD7-43BD-8DA8-363AF09343BB}"/>
   </bookViews>
   <sheets>
     <sheet name="TablesRanges" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="224">
   <si>
     <t>Name</t>
   </si>
@@ -728,6 +728,18 @@
   </si>
   <si>
     <t>R/C Value - Show Value as</t>
+  </si>
+  <si>
+    <t>PivotTable Analyze</t>
+  </si>
+  <si>
+    <t>Fields, Itemas and Sets</t>
+  </si>
+  <si>
+    <t>Calculated Field</t>
+  </si>
+  <si>
+    <t>Create Groups - Bins</t>
   </si>
 </sst>
 </file>
@@ -5081,8 +5093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99222097-D0F9-4358-B1A9-229DFD71A79A}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6244,8 +6256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15149C6-D51A-4779-B048-A43FC8FFF2F3}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6443,10 +6455,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE438B38-5C3D-4D63-B441-5450E1BE7213}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6568,7 +6580,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>198</v>
       </c>
@@ -6576,22 +6588,22 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>214</v>
       </c>
@@ -6599,7 +6611,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>216</v>
       </c>
@@ -6607,12 +6619,28 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>218</v>
       </c>
       <c r="B25" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GBMLVFILFS05N02\home0$\NirmJ\Profile\Desktop\Talent Academy\Course Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A46864-86EA-4EE2-B265-4D31D4D388F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B952C6-865E-4F5F-8341-5CF4ED43C87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33960" yWindow="4575" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{3EBB3163-CAD7-43BD-8DA8-363AF09343BB}"/>
+    <workbookView xWindow="30855" yWindow="1860" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{3EBB3163-CAD7-43BD-8DA8-363AF09343BB}"/>
   </bookViews>
   <sheets>
     <sheet name="TablesRanges" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="226">
   <si>
     <t>Name</t>
   </si>
@@ -740,6 +740,12 @@
   </si>
   <si>
     <t>Create Groups - Bins</t>
+  </si>
+  <si>
+    <t>Home - Styles - Con - Colour Scales</t>
+  </si>
+  <si>
+    <t>2-scale / 3-scale</t>
   </si>
 </sst>
 </file>
@@ -6256,8 +6262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15149C6-D51A-4779-B048-A43FC8FFF2F3}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6455,30 +6461,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE438B38-5C3D-4D63-B441-5450E1BE7213}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>188</v>
       </c>
@@ -6486,7 +6492,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>189</v>
       </c>
@@ -6494,7 +6500,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>188</v>
       </c>
@@ -6502,7 +6508,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>192</v>
       </c>
@@ -6510,12 +6516,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>203</v>
       </c>
@@ -6526,7 +6532,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>196</v>
       </c>
@@ -6534,7 +6540,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>196</v>
       </c>
@@ -6542,7 +6548,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>188</v>
       </c>
@@ -6553,15 +6559,22 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>202</v>
       </c>
       <c r="B13" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>5000</v>
+      </c>
+      <c r="I13">
+        <f>H13*6/100/365*30</f>
+        <v>24.657534246575342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>169</v>
       </c>
@@ -6572,7 +6585,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>196</v>
       </c>
@@ -6641,6 +6654,14 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GBMLVFILFS05N02\home0$\NirmJ\Profile\Desktop\Talent Academy\Course Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B952C6-865E-4F5F-8341-5CF4ED43C87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94CAA0F-AC20-4A5F-88A6-D504E815F8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30855" yWindow="1860" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{3EBB3163-CAD7-43BD-8DA8-363AF09343BB}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{3EBB3163-CAD7-43BD-8DA8-363AF09343BB}"/>
   </bookViews>
   <sheets>
     <sheet name="TablesRanges" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="232">
   <si>
     <t>Name</t>
   </si>
@@ -746,6 +746,24 @@
   </si>
   <si>
     <t>2-scale / 3-scale</t>
+  </si>
+  <si>
+    <t>Move to Filters</t>
+  </si>
+  <si>
+    <t>Change Colours</t>
+  </si>
+  <si>
+    <t>Monochrome</t>
+  </si>
+  <si>
+    <t>Field List</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Value Filter</t>
   </si>
 </sst>
 </file>
@@ -802,7 +820,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -830,6 +848,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,7 +915,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -917,6 +941,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -6461,10 +6486,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE438B38-5C3D-4D63-B441-5450E1BE7213}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6662,6 +6687,38 @@
       </c>
       <c r="B28" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>200</v>
+      </c>
+      <c r="B30" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
